--- a/335Lab/Lab 2/Data/AverageVelocities_60.xlsx
+++ b/335Lab/Lab 2/Data/AverageVelocities_60.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class Work\Current\ME335\335 Lab\Lab 2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class Work\Current\ME335\335Lab\Lab 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38073BC-34AC-4C6C-8CD7-72F5F97B29EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A5315C-4329-458C-90A4-F0CBBA209B29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="3156" windowWidth="18432" windowHeight="9768" xr2:uid="{8F385075-BD0B-654F-A0F3-8047B2A0C05C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{8F385075-BD0B-654F-A0F3-8047B2A0C05C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Position</t>
   </si>
   <si>
     <t>y60</t>
+  </si>
+  <si>
+    <t>y60StdDev</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E9BAB3-2E29-344B-A900-0A4F9CE6DDD1}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -444,116 +447,155 @@
     <col min="1" max="1" width="7.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>-2.2400000000000002</v>
       </c>
       <c r="B2" s="7">
         <v>7.474855157835302</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="7">
+        <v>5.83346997682705E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>-1.97</v>
       </c>
       <c r="B3" s="7">
         <v>7.9467553281333094</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="7">
+        <v>5.4034435713544944E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>-1.5</v>
       </c>
       <c r="B4" s="7">
         <v>8.2917464215751799</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="7">
+        <v>8.0567063690268947E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>-0.75</v>
       </c>
       <c r="B5" s="7">
         <v>8.3503938585122306</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="7">
+        <v>3.8132402550844782E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>-0.47</v>
       </c>
       <c r="B6" s="7">
         <v>8.2902593364061321</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="7">
+        <v>4.5587544586650437E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>-0.24</v>
       </c>
       <c r="B7" s="7">
         <v>8.1680805165383603</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="7">
+        <v>3.0576111569808374E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>0.24</v>
       </c>
       <c r="B8" s="7">
         <v>8.0837909430823025</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="7">
+        <v>3.7411673467865142E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>0.47</v>
       </c>
       <c r="B9" s="7">
         <v>8.0367707334527658</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="7">
+        <v>9.0619556005781962E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>0.75</v>
       </c>
       <c r="B10" s="7">
         <v>8.0505950509515447</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="7">
+        <v>3.7447018645321642E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1.5</v>
       </c>
       <c r="B11" s="7">
         <v>7.5175485004432856</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="7">
+        <v>7.5608984944315394E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1.97</v>
       </c>
       <c r="B12" s="7">
         <v>7.2894401903999606</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="7">
+        <v>6.5207224420477064E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2.2400000000000002</v>
       </c>
       <c r="B13" s="7">
         <v>6.9337213995938658</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="7">
+        <v>3.4249418114256282E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -563,21 +605,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C35235A0CBEA4E4BA44A492B72CB0F55" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70e5c958f602f45486ea9c9e3e1161eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6112e395-b193-4778-b513-460523810ab5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df585931453734ed62ad13ba882f2bc2" ns2:_="">
     <xsd:import namespace="6112e395-b193-4778-b513-460523810ab5"/>
@@ -709,24 +736,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69A6E76E-B456-4173-B04E-AAD867A954CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{752821D1-C181-4644-ABF0-CDCC8C499165}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{530C1D90-556C-4950-90F5-1F2F84D012E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -742,4 +767,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{752821D1-C181-4644-ABF0-CDCC8C499165}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69A6E76E-B456-4173-B04E-AAD867A954CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>